--- a/Design/Excel/CharacterSkillTable.xlsx
+++ b/Design/Excel/CharacterSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3127677-3626-437C-A849-DF8FD1AC23F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6216370-A93B-45BC-A6F6-2654EB02F8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillInfo" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>SlashPencil</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,14 @@
   </si>
   <si>
     <t>ENUM_SKILL_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useMana</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -411,9 +419,10 @@
     <col min="3" max="3" width="16.59765625" customWidth="1"/>
     <col min="4" max="4" width="18.796875" customWidth="1"/>
     <col min="5" max="5" width="20.3984375" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -429,8 +438,11 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -446,8 +458,11 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -463,8 +478,11 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -479,6 +497,9 @@
       </c>
       <c r="E4">
         <v>0</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -491,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D02671D-0A3D-4874-90E4-C4B96CA4F80F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -499,6 +520,7 @@
   <cols>
     <col min="1" max="1" width="18.3984375" customWidth="1"/>
     <col min="2" max="2" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">

--- a/Design/Excel/CharacterSkillTable.xlsx
+++ b/Design/Excel/CharacterSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6216370-A93B-45BC-A6F6-2654EB02F8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD95641-16CF-4354-8F77-8703232683B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -487,13 +487,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>

--- a/Design/Excel/CharacterSkillTable.xlsx
+++ b/Design/Excel/CharacterSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD95641-16CF-4354-8F77-8703232683B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8D6461-B084-4063-B39D-21CB180B77BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>SlashPencil</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,20 @@
   </si>
   <si>
     <t>useMana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM_ATTACK_KEY</t>
+  </si>
+  <si>
+    <t>attackKeyType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKILL</t>
+  </si>
+  <si>
+    <t>ATTACK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -420,9 +434,10 @@
     <col min="4" max="4" width="18.796875" customWidth="1"/>
     <col min="5" max="5" width="20.3984375" customWidth="1"/>
     <col min="6" max="6" width="14.59765625" customWidth="1"/>
+    <col min="7" max="7" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -441,8 +456,11 @@
       <c r="F1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -461,8 +479,11 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -481,8 +502,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -500,6 +524,9 @@
       </c>
       <c r="F4">
         <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excel/CharacterSkillTable.xlsx
+++ b/Design/Excel/CharacterSkillTable.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8D6461-B084-4063-B39D-21CB180B77BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAB540A-888D-42D1-8272-22313CAB932C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SkillInfo" sheetId="1" r:id="rId1"/>
-    <sheet name="CharacterSkillMapInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="SkillConditionInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="EntitySkillMappingInfo" sheetId="2" r:id="rId2"/>
+    <sheet name="SkillKeyMappingInfo" sheetId="3" r:id="rId3"/>
+    <sheet name="SkillTagInfo" sheetId="5" r:id="rId4"/>
+    <sheet name="SkillActionInfo" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>SlashPencil</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +98,42 @@
   </si>
   <si>
     <t>ATTACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Instantiate]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooltime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Instantiate]:Pencil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PencilInstantiate]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,22 +461,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.796875" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="18.796875" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" customWidth="1"/>
-    <col min="7" max="7" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -457,10 +496,10 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -480,10 +519,10 @@
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -502,11 +541,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -525,8 +564,8 @@
       <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
+      <c r="G4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -543,14 +582,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="2" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.8984375" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -558,7 +597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -566,7 +605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -574,12 +613,169 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93679D23-1504-4C9F-ADC0-8405D7ED8A2F}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637C14CB-0AFB-406E-AD21-03972FA25737}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55325CF-3B68-42CD-8BBD-831A0A5941B2}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excel/CharacterSkillTable.xlsx
+++ b/Design/Excel/CharacterSkillTable.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAB540A-888D-42D1-8272-22313CAB932C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3271C34A-546A-4283-B9B8-DB2AB2774D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConditionInfo" sheetId="1" r:id="rId1"/>
-    <sheet name="EntitySkillMappingInfo" sheetId="2" r:id="rId2"/>
-    <sheet name="SkillKeyMappingInfo" sheetId="3" r:id="rId3"/>
-    <sheet name="SkillTagInfo" sheetId="5" r:id="rId4"/>
-    <sheet name="SkillActionInfo" sheetId="6" r:id="rId5"/>
+    <sheet name="SkillTagActionInfo" sheetId="5" r:id="rId2"/>
+    <sheet name="SkillEntityMappingInfo" sheetId="2" r:id="rId3"/>
+    <sheet name="SkillKeyMappingInfo" sheetId="3" r:id="rId4"/>
+    <sheet name="SkillTagActionMappingInfo" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>SlashPencil</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,15 +125,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Instantiate]:Pencil</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[PencilInstantiate]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal</t>
+    <t>Assets/Bundle/Prefabs/Entity/Attackable/Normal.prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,21 +454,21 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="19.69921875" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" customWidth="1"/>
+    <col min="3" max="3" width="16.59765625" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="24.375" customWidth="1"/>
+    <col min="7" max="7" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -499,7 +491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -522,7 +514,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -545,7 +537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -575,6 +567,50 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637C14CB-0AFB-406E-AD21-03972FA25737}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.69921875" customWidth="1"/>
+    <col min="2" max="2" width="50.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D02671D-0A3D-4874-90E4-C4B96CA4F80F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -582,14 +618,14 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -597,7 +633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -605,7 +641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -613,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -627,7 +663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93679D23-1504-4C9F-ADC0-8405D7ED8A2F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -635,13 +671,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -649,7 +685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -657,7 +693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -665,7 +701,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -677,58 +713,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637C14CB-0AFB-406E-AD21-03972FA25737}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -740,13 +724,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -754,7 +738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -762,7 +746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -770,12 +754,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excel/CharacterSkillTable.xlsx
+++ b/Design/Excel/CharacterSkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3271C34A-546A-4283-B9B8-DB2AB2774D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE62D10-C526-48BA-88A4-14D1FE1B40CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>SlashPencil</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,14 @@
   </si>
   <si>
     <t>Assets/Bundle/Prefabs/Entity/Attackable/Normal.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Instantiate]:Assets/Bundle/Prefabs/Entity/Attackable/Pencil.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Pencil Instantiate]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,16 +576,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637C14CB-0AFB-406E-AD21-03972FA25737}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.69921875" customWidth="1"/>
-    <col min="2" max="2" width="50.796875" customWidth="1"/>
+    <col min="2" max="2" width="62.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
@@ -604,6 +612,14 @@
         <v>24</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -614,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D02671D-0A3D-4874-90E4-C4B96CA4F80F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -667,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93679D23-1504-4C9F-ADC0-8405D7ED8A2F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -759,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Excel/CharacterSkillTable.xlsx
+++ b/Design/Excel/CharacterSkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ProjectPM\Design\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE62D10-C526-48BA-88A4-14D1FE1B40CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BABB190-EBBE-466A-90F6-13B7E0286F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillConditionInfo" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>SlashPencil</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,22 @@
   </si>
   <si>
     <t>[Pencil Instantiate]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM_CHARACTER_STATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>characterState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,24 +475,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.69921875" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="18.69921875" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" customWidth="1"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="24.3984375" customWidth="1"/>
+    <col min="7" max="7" width="24.375" customWidth="1"/>
+    <col min="8" max="8" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -498,8 +515,11 @@
       <c r="G1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -521,8 +541,11 @@
       <c r="G2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -544,8 +567,11 @@
       <c r="G3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -566,6 +592,9 @@
       </c>
       <c r="G4">
         <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -582,13 +611,13 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" customWidth="1"/>
-    <col min="2" max="2" width="62.69921875" customWidth="1"/>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="62.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -596,7 +625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -604,7 +633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -612,7 +641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -634,14 +663,14 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="2" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.8984375" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -649,7 +678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -657,7 +686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -665,7 +694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -687,13 +716,13 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.5" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -701,7 +730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -709,7 +738,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -717,7 +746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -736,17 +765,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55325CF-3B68-42CD-8BBD-831A0A5941B2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -754,7 +783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -762,7 +791,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -770,7 +799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
